--- a/log/PSOELM_extracted_result/PSOELM_slp67x_result/PSOELM_slp67x_result.xlsx
+++ b/log/PSOELM_extracted_result/PSOELM_slp67x_result/PSOELM_slp67x_result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fennia\Documents\MATLAB\thesis\PSOELM_slp67x_result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fennia\Documents\MATLAB\thesis\log\PSOELM_extracted_result\PSOELM_slp67x_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -123,9 +123,6 @@
     <t>1 4 6 9 11 12 14 15</t>
   </si>
   <si>
-    <t>best experiment</t>
-  </si>
-  <si>
     <t>1 6 7 8 9 10 12 14</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>3 4 5 6 7 9 14 16</t>
+  </si>
+  <si>
+    <t>BEST EXPERIMENT</t>
   </si>
 </sst>
 </file>
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1292,7 +1292,7 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
         <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1332,7 +1332,7 @@
         <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,7 +1352,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1372,7 +1372,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1432,7 +1432,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1452,7 +1452,7 @@
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1472,7 +1472,7 @@
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
         <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1532,7 +1532,7 @@
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1552,7 +1552,7 @@
         <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1592,7 +1592,7 @@
         <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1612,7 +1612,7 @@
         <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1632,7 +1632,7 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1672,7 +1672,7 @@
         <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1692,7 +1692,7 @@
         <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1712,7 +1712,7 @@
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1732,7 +1732,7 @@
         <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1752,10 +1752,10 @@
         <v>109</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1830,7 @@
         <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1850,7 +1850,7 @@
         <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1870,7 +1870,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1910,7 +1910,7 @@
         <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1930,7 +1930,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1950,7 +1950,7 @@
         <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1970,7 +1970,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1990,7 +1990,7 @@
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2010,7 +2010,7 @@
         <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2030,7 +2030,7 @@
         <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2050,7 +2050,7 @@
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2070,7 +2070,7 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2090,7 +2090,7 @@
         <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,10 +2110,10 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2133,7 +2133,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2153,7 +2153,7 @@
         <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2173,7 +2173,7 @@
         <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2193,7 +2193,7 @@
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,7 +2213,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2233,7 +2233,7 @@
         <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2253,7 +2253,7 @@
         <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2273,7 +2273,7 @@
         <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2293,7 +2293,7 @@
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2313,7 +2313,7 @@
         <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2368,7 @@
         <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2388,7 +2388,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2428,7 +2428,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2448,10 +2448,10 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2471,7 +2471,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2491,7 +2491,7 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2511,7 +2511,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2531,7 +2531,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2551,7 +2551,7 @@
         <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2571,7 +2571,7 @@
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2591,7 +2591,7 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2611,7 +2611,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2631,7 +2631,7 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2651,7 +2651,7 @@
         <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2671,7 +2671,7 @@
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2691,7 +2691,7 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2711,7 +2711,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2731,7 +2731,7 @@
         <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2751,7 +2751,7 @@
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2771,7 +2771,7 @@
         <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2791,7 +2791,7 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2811,7 +2811,7 @@
         <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2831,7 +2831,7 @@
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2851,7 +2851,7 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
